--- a/資料/設計/スケジュール/スケジュール表v0.232.xlsx
+++ b/資料/設計/スケジュール/スケジュール表v0.232.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fuminori.hakoishi\Desktop\箱石\技術研修\PICマイコン研修\C編\comp.Kitchen_Timer\資料\設計\スケジュール\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332AA23F-0F12-458D-BBAC-580B2535886F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B60B82-8EE4-4825-86E5-866578775953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17D2DDFA-5711-4A0F-83BD-FA52101C4DCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1106,9 +1106,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1117,36 +1141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1158,37 +1158,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1522,11 +1491,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F16" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N24" sqref="N24"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1595,7 +1564,7 @@
       <c r="D5" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="89" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="19">
@@ -1713,7 +1682,7 @@
       </c>
       <c r="C6" s="85"/>
       <c r="D6" s="85"/>
-      <c r="E6" s="82"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="20" t="str">
         <f>TEXT(WEEKDAY(F5,1),"aaaa")</f>
         <v>火曜日</v>
@@ -2164,7 +2133,7 @@
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.45">
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="86" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="38">
@@ -2296,7 +2265,7 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B11" s="86"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="37">
         <v>43999</v>
       </c>
@@ -2354,7 +2323,7 @@
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="5"/>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="86" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="73">
@@ -2481,7 +2450,7 @@
     </row>
     <row r="13" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="5"/>
-      <c r="B13" s="80"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="65">
         <v>44000</v>
       </c>
@@ -2534,7 +2503,7 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A14" s="5"/>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="86" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="73">
@@ -2661,7 +2630,7 @@
     </row>
     <row r="15" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A15" s="5"/>
-      <c r="B15" s="80"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="65">
         <v>44000</v>
       </c>
@@ -2681,7 +2650,9 @@
         <v>1</v>
       </c>
       <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="N15" s="15">
+        <v>1</v>
+      </c>
       <c r="O15" s="15"/>
       <c r="P15" s="15"/>
       <c r="Q15" s="25"/>
@@ -2711,7 +2682,7 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A16" s="5"/>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="73">
@@ -2838,7 +2809,7 @@
     </row>
     <row r="17" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A17" s="5"/>
-      <c r="B17" s="80"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="65"/>
       <c r="D17" s="66"/>
       <c r="E17" s="77"/>
@@ -3388,12 +3359,12 @@
     </row>
     <row r="22" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="10"/>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="88"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="90">
+      <c r="C22" s="80"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="82">
         <f>SUBTOTAL(9,E9:E21)</f>
         <v>17</v>
       </c>
@@ -3437,7 +3408,7 @@
       <c r="A23" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="86" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="73">
@@ -3564,7 +3535,7 @@
     </row>
     <row r="24" spans="1:40" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A24" s="5"/>
-      <c r="B24" s="80"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="65">
         <v>44005</v>
       </c>
@@ -3580,7 +3551,9 @@
       <c r="M24" s="15">
         <v>1</v>
       </c>
-      <c r="N24" s="15"/>
+      <c r="N24" s="15">
+        <v>1</v>
+      </c>
       <c r="O24" s="15"/>
       <c r="P24" s="15"/>
       <c r="Q24" s="25"/>
@@ -4623,15 +4596,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L7:P21 S7:W21 Z7:AD21 AG7:AK21 AN7:AN21 AN23:AN28 AG23:AK28 Z23:AD28 S23:W28 L23:P28 F23:I28 F30:I32 L30:P32 S30:W32 Z30:AD32 AG30:AK32 AN30:AN32 F7:I21">
@@ -4665,7 +4638,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
